--- a/hello-world/Excel2016/任务书.xlsx
+++ b/hello-world/Excel2016/任务书.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\wh\Excel2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\wh\test\hello-world\Excel2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E73A18-C92C-41A8-912C-B44F5EFBABBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D9470B-FFA8-4DB0-BE1A-46C0ED6D22F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{461F65B1-5068-469D-A48E-E6D59FCC582D}"/>
   </bookViews>
@@ -121,12 +121,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -158,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +194,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +515,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -539,7 +548,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -553,7 +562,7 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -567,7 +576,7 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -581,7 +590,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -595,7 +604,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -609,7 +618,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -623,7 +632,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">

--- a/hello-world/Excel2016/任务书.xlsx
+++ b/hello-world/Excel2016/任务书.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\wh\test\hello-world\Excel2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D9470B-FFA8-4DB0-BE1A-46C0ED6D22F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E366C1EA-FD3C-4801-A70B-2FE4A30F6D78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{461F65B1-5068-469D-A48E-E6D59FCC582D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="任务书" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="idea" sheetId="3" r:id="rId3"/>
+    <sheet name="任务日志" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">任务书!$A$1:$L$78</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,67 +31,833 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="217">
   <si>
     <t>报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进货</t>
+  </si>
+  <si>
+    <t>经营状况</t>
+  </si>
+  <si>
+    <t>业绩报表</t>
+  </si>
+  <si>
+    <t>利润报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售报表-按日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>一级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数据样式</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货报表-按日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收付款</t>
+  </si>
+  <si>
+    <t>收款历史</t>
+  </si>
+  <si>
+    <t>付款历史</t>
+  </si>
+  <si>
+    <t>日常收入</t>
+  </si>
+  <si>
+    <t>日常支出</t>
+  </si>
+  <si>
+    <t>日常收支项目</t>
+  </si>
+  <si>
+    <t>资金</t>
+  </si>
+  <si>
+    <t>资金流水</t>
+  </si>
+  <si>
+    <t>结算账户</t>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>销售报表-按商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>销售报表-按客户</t>
-  </si>
-  <si>
-    <t>进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进货报表-按商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进货报表-按供应商</t>
-  </si>
-  <si>
-    <t>经营状况</t>
-  </si>
-  <si>
-    <t>业绩报表</t>
-  </si>
-  <si>
-    <t>利润报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售报表-按日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收欠款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收欠款-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付欠款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付欠款-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款单-历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;应收欠款-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;应付欠款-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;收款单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款单-历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;付款单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常收支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常收入-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常支出-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金流水-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算账户-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预购单</t>
+  </si>
+  <si>
+    <t>退货单</t>
+  </si>
+  <si>
+    <t>退货历史</t>
+  </si>
+  <si>
+    <t>库存</t>
+  </si>
+  <si>
+    <t>盘点单</t>
+  </si>
+  <si>
+    <t>盘点历史</t>
+  </si>
+  <si>
+    <t>组装拆卸单</t>
+  </si>
+  <si>
+    <t>组装拆卸历史</t>
+  </si>
+  <si>
+    <t>仓库管理</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>供应商分类</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>其他入库单</t>
+  </si>
+  <si>
+    <t>其他入库历史</t>
+  </si>
+  <si>
+    <t>其他出库单</t>
+  </si>
+  <si>
+    <t>其他出库历史</t>
+  </si>
+  <si>
+    <t>其他出入库类型</t>
+  </si>
+  <si>
+    <t>预购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预购单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预购历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;预购单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;编辑预购单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;预购转进货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;进货单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;退货单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存查询（*库存分布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;盘点单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组装拆卸单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;组装拆卸单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库管理-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他出入库类型-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他入库单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他出库单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;其他入库单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;其他出库单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点历史（*锁定仓库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;盘点单-编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.高级搜索 单据编号、仓库不起作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存预警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存预警-总览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientHeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试 操作中详情未做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索 编号查询查过后删除不能查询了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未检查 日期报错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.负库存 报错 （该单据合计金额与分项明细合计不相等，请留意金额误差）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.客户名称是否isAll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.高级搜索是组件格式，待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未检查 1.筛选没做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>销售</t>
-  </si>
-  <si>
-    <t>一级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三级菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数据样式</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
-    <t>筛选</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速改价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成本价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预售单-历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;预售单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;预售单-转销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;预售单-编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售单-历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;销售单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货单-历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;退货单-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品-新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品-列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成本价-列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询成本价-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;商品-编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;商品-复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;商品-详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码录入</t>
+  </si>
+  <si>
+    <t>扫码录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.快速扫描多次，会提示未匹配商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.一个商品扫描多次，表格显示重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.多单位商品，辅助单位有条形码无法匹配商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.价格更改后，重新选择销售类型，价格会重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.商品弹窗的价格显示不正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否置灰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.切换业务类型 单价会有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getChangeProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取模糊匹配商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popSelectProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示商品弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择商品弹窗代入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closeProductModal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭商品弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onChangeSalesType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择销售类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.搜索商品名称需要完整名才行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.失去焦点 下拉框没收收回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.模糊匹配多单位没有测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.业务类型未按照实际显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.都没有传type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.税率不太明白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.多单位没有测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利润报表树结构未展开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>角色权限</t>
+  </si>
+  <si>
+    <t>员工管理</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>业务设置</t>
+  </si>
+  <si>
+    <t>单据编号设置</t>
+  </si>
+  <si>
+    <t>企业账户设置</t>
+  </si>
+  <si>
+    <t>打印测试</t>
   </si>
 </sst>
 </file>
@@ -112,16 +881,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="7"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,12 +897,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,26 +961,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FFE8E8E8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,17 +986,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,143 +1327,2345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96691FE3-D5C4-4E6D-9630-F80606397534}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79:A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="21.1640625" style="4"/>
+    <col min="3" max="3" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="21.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="I1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="H26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L78" xr:uid="{B0681F3F-11F9-4A4C-963D-A5DF1CB1F5B5}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B889B1A-B9D5-42CB-BB43-2DC2A3D0F758}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3040BC-1709-4854-A80E-2194EDD56B37}">
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="41.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A161593-B918-4B58-B4AC-ECA06A5E9937}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{035D0A1C-320C-4E14-BB1F-798DBA3761AD}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
